--- a/relatorio_admin.xlsx
+++ b/relatorio_admin.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,84 +424,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Senha</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>joaopedrof1314@gmail.com</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>joaopedrof@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>adimin@gmail.com</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>adimin@gmail.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
           <t>admin@email.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bia123@gmail.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>admin@email.com</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>123</t>
         </is>
       </c>
     </row>
